--- a/strategy_wide/cluster_strategy_wide_3_6clusters.xlsx
+++ b/strategy_wide/cluster_strategy_wide_3_6clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FFC65FC021D16ECD3C160B2ADBF709265C382F0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F559B91F-0DB9-49A2-9162-4025343B27BC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_FFC65FC0C5F929CC54160BEB0B7439105C382F0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71196CB0-6F5A-4254-A5D7-1A0DBBCCB5A0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="690" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2145" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,104 +272,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="6"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -946,205 +849,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF9900"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1446,7 +1152,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection sqref="A1:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,16 +1222,16 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -1540,40 +1246,40 @@
         <v>58</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="U2" s="1">
         <v>0</v>
@@ -1581,10 +1287,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -1593,46 +1299,46 @@
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>62</v>
@@ -1641,15 +1347,15 @@
         <v>62</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1667,10 +1373,10 @@
         <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>58</v>
@@ -1682,39 +1388,39 @@
         <v>58</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="1">
         <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1735,7 +1441,7 @@
         <v>58</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>58</v>
@@ -1744,31 +1450,31 @@
         <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1776,10 +1482,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1800,51 +1506,51 @@
         <v>58</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="1">
         <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1859,7 +1565,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>58</v>
@@ -1880,13 +1586,13 @@
         <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>60</v>
@@ -1895,21 +1601,21 @@
         <v>62</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1930,13 +1636,13 @@
         <v>58</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>58</v>
@@ -1948,33 +1654,33 @@
         <v>58</v>
       </c>
       <c r="O8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1995,7 +1701,7 @@
         <v>58</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>58</v>
@@ -2013,33 +1719,33 @@
         <v>58</v>
       </c>
       <c r="O9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -2054,40 +1760,40 @@
         <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
       <c r="P10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>62</v>
@@ -2096,7 +1802,7 @@
         <v>62</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
@@ -2125,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="I11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>61</v>
@@ -2143,7 +1849,7 @@
         <v>58</v>
       </c>
       <c r="O11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>59</v>
@@ -2161,15 +1867,15 @@
         <v>62</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -2184,7 +1890,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>58</v>
@@ -2196,28 +1902,28 @@
         <v>58</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O12" s="1">
         <v>4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>62</v>
@@ -2226,15 +1932,15 @@
         <v>62</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -2246,10 +1952,10 @@
         <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>58</v>
@@ -2261,7 +1967,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>58</v>
@@ -2273,13 +1979,13 @@
         <v>58</v>
       </c>
       <c r="O13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>62</v>
@@ -2291,15 +1997,15 @@
         <v>62</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2314,28 +2020,28 @@
         <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O14" s="1">
         <v>5</v>
@@ -2344,7 +2050,7 @@
         <v>62</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>62</v>
@@ -2356,15 +2062,15 @@
         <v>62</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -2373,10 +2079,10 @@
         <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>58</v>
@@ -2385,66 +2091,66 @@
         <v>58</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O15" s="1">
         <v>5</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>58</v>
@@ -2453,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>58</v>
@@ -2462,48 +2168,48 @@
         <v>58</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>58</v>
@@ -2515,40 +2221,40 @@
         <v>58</v>
       </c>
       <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
       <c r="P17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -2556,16 +2262,16 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>58</v>
@@ -2580,37 +2286,37 @@
         <v>58</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>62</v>
@@ -2621,205 +2327,205 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="1">
         <v>4</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="O21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -2831,49 +2537,49 @@
         <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U22" s="1">
         <v>1</v>
@@ -2881,19 +2587,19 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>58</v>
@@ -2905,78 +2611,78 @@
         <v>58</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O23" s="1">
         <v>2</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>58</v>
@@ -2985,10 +2691,10 @@
         <v>58</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>60</v>
@@ -2997,7 +2703,7 @@
         <v>60</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>60</v>
@@ -3006,30 +2712,30 @@
         <v>60</v>
       </c>
       <c r="U24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>58</v>
@@ -3038,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>58</v>
@@ -3056,54 +2762,54 @@
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>58</v>
@@ -3112,39 +2818,39 @@
         <v>58</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -3153,25 +2859,25 @@
         <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>58</v>
@@ -3180,36 +2886,36 @@
         <v>58</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="1">
         <v>4</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U27" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -3218,40 +2924,40 @@
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O28" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>62</v>
@@ -3266,21 +2972,21 @@
         <v>62</v>
       </c>
       <c r="U28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>58</v>
@@ -3289,57 +2995,57 @@
         <v>58</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U29" s="1">
         <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" s="1">
-        <v>3</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U29" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -3357,7 +3063,7 @@
         <v>58</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
@@ -3372,16 +3078,16 @@
         <v>58</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>62</v>
@@ -3396,7 +3102,7 @@
         <v>62</v>
       </c>
       <c r="U30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
@@ -3443,7 +3149,7 @@
         <v>58</v>
       </c>
       <c r="O31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>60</v>
@@ -3461,15 +3167,15 @@
         <v>62</v>
       </c>
       <c r="U31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -3478,72 +3184,72 @@
         <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="1">
         <v>5</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O32" s="1">
-        <v>3</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U32" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>58</v>
@@ -3555,13 +3261,13 @@
         <v>58</v>
       </c>
       <c r="I33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>58</v>
@@ -3570,25 +3276,25 @@
         <v>61</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="U33" s="1">
         <v>4</v>
@@ -3596,19 +3302,19 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>58</v>
@@ -3617,10 +3323,10 @@
         <v>58</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>58</v>
@@ -3632,25 +3338,25 @@
         <v>58</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>60</v>
@@ -3661,10 +3367,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -3673,7 +3379,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>58</v>
@@ -3685,7 +3391,7 @@
         <v>58</v>
       </c>
       <c r="I35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>58</v>
@@ -3700,36 +3406,36 @@
         <v>58</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -3738,7 +3444,7 @@
         <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>58</v>
@@ -3750,22 +3456,22 @@
         <v>58</v>
       </c>
       <c r="I36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O36" s="1">
         <v>3</v>
@@ -3777,24 +3483,24 @@
         <v>60</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="U36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -3818,13 +3524,13 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>58</v>
@@ -3836,30 +3542,30 @@
         <v>3</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -3868,22 +3574,22 @@
         <v>58</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>58</v>
@@ -3895,99 +3601,99 @@
         <v>58</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O38" s="1">
         <v>3</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U38" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="1">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U39" s="1">
         <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O39" s="1">
-        <v>5</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U39" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U39" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U39">
-      <sortCondition ref="U1:U39"/>
+      <sortCondition ref="I1:I39"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -4067,6 +3773,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:T39">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4079,32 +3811,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:T39">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>